--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H2">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I2">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J2">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>0.4393828653272517</v>
+        <v>0.150002898189</v>
       </c>
       <c r="R2">
-        <v>0.4393828653272517</v>
+        <v>0.600011592756</v>
       </c>
       <c r="S2">
-        <v>0.001537237644199846</v>
+        <v>0.0003336112131519489</v>
       </c>
       <c r="T2">
-        <v>0.001537237644199846</v>
+        <v>0.0001671995557316546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H3">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I3">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J3">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>64.15075638152388</v>
+        <v>0.013440055679</v>
       </c>
       <c r="R3">
-        <v>64.15075638152388</v>
+        <v>0.08064033407399999</v>
       </c>
       <c r="S3">
-        <v>0.2244396980299259</v>
+        <v>2.989111099874557E-05</v>
       </c>
       <c r="T3">
-        <v>0.2244396980299259</v>
+        <v>2.247127921194683E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H4">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I4">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J4">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>105.1083386359649</v>
+        <v>23.352285627061</v>
       </c>
       <c r="R4">
-        <v>105.1083386359649</v>
+        <v>140.113713762366</v>
       </c>
       <c r="S4">
-        <v>0.3677350839572873</v>
+        <v>0.05193622544611566</v>
       </c>
       <c r="T4">
-        <v>0.3677350839572873</v>
+        <v>0.03904416343919972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H5">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I5">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J5">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>0.8517795491601495</v>
+        <v>33.505531159599</v>
       </c>
       <c r="R5">
-        <v>0.8517795491601495</v>
+        <v>201.033186957594</v>
       </c>
       <c r="S5">
-        <v>0.00298006065064309</v>
+        <v>0.07451736621362121</v>
       </c>
       <c r="T5">
-        <v>0.00298006065064309</v>
+        <v>0.05602001686706953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,72 +776,72 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H6">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I6">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J6">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>2.049128141281974</v>
+        <v>0.290196394936</v>
       </c>
       <c r="R6">
-        <v>2.049128141281974</v>
+        <v>1.741178369616</v>
       </c>
       <c r="S6">
-        <v>0.007169139183936534</v>
+        <v>0.0006454060057222315</v>
       </c>
       <c r="T6">
-        <v>0.007169139183936534</v>
+        <v>0.0004851977084511934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.377961510511904</v>
+        <v>0.472803</v>
       </c>
       <c r="H7">
-        <v>0.377961510511904</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I7">
-        <v>0.1529006601162442</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J7">
-        <v>0.1529006601162442</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>0.1112539238928343</v>
+        <v>0.6552791902364999</v>
       </c>
       <c r="R7">
-        <v>0.1112539238928343</v>
+        <v>2.621116760946</v>
       </c>
       <c r="S7">
-        <v>0.000389236206891298</v>
+        <v>0.001457361745988295</v>
       </c>
       <c r="T7">
-        <v>0.000389236206891298</v>
+        <v>0.0007304018176348514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H8">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J8">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>16.24329014929193</v>
+        <v>0.5011843797646667</v>
       </c>
       <c r="R8">
-        <v>16.24329014929193</v>
+        <v>3.007106278588</v>
       </c>
       <c r="S8">
-        <v>0.05682924632155287</v>
+        <v>0.001114649989865054</v>
       </c>
       <c r="T8">
-        <v>0.05682924632155287</v>
+        <v>0.0008379618658838905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H9">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J9">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>26.61395341030978</v>
+        <v>0.04490543883355555</v>
       </c>
       <c r="R9">
-        <v>26.61395341030978</v>
+        <v>0.4041489495019999</v>
       </c>
       <c r="S9">
-        <v>0.09311234977913369</v>
+        <v>9.987112320661606E-05</v>
       </c>
       <c r="T9">
-        <v>0.09311234977913369</v>
+        <v>0.0001126203653762214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H10">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I10">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J10">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>0.2156748125923299</v>
+        <v>78.02383106851309</v>
       </c>
       <c r="R10">
-        <v>0.2156748125923299</v>
+        <v>702.2144796166178</v>
       </c>
       <c r="S10">
-        <v>0.0007545661585500004</v>
+        <v>0.1735274801473014</v>
       </c>
       <c r="T10">
-        <v>0.0007545661585500004</v>
+        <v>0.1956794675931859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H11">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I11">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J11">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>0.5188494232861249</v>
+        <v>111.947496052718</v>
       </c>
       <c r="R11">
-        <v>0.5188494232861249</v>
+        <v>1007.527464474462</v>
       </c>
       <c r="S11">
-        <v>0.001815261650116382</v>
+        <v>0.2489747892764981</v>
       </c>
       <c r="T11">
-        <v>0.001815261650116382</v>
+        <v>0.2807581494780809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.601270441457087</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H12">
-        <v>0.601270441457087</v>
+        <v>4.739138</v>
       </c>
       <c r="I12">
-        <v>0.2432381204177632</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J12">
-        <v>0.2432381204177632</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>0.1769854709340061</v>
+        <v>0.9695939342631111</v>
       </c>
       <c r="R12">
-        <v>0.1769854709340061</v>
+        <v>8.726345408367999</v>
       </c>
       <c r="S12">
-        <v>0.0006192065050000422</v>
+        <v>0.002156407726647564</v>
       </c>
       <c r="T12">
-        <v>0.0006192065050000422</v>
+        <v>0.00243168814245465</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.601270441457087</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H13">
-        <v>0.601270441457087</v>
+        <v>4.739138</v>
       </c>
       <c r="I13">
-        <v>0.2432381204177632</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J13">
-        <v>0.2432381204177632</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>25.84022438039417</v>
+        <v>2.189395661659666</v>
       </c>
       <c r="R13">
-        <v>25.84022438039417</v>
+        <v>13.136373969958</v>
       </c>
       <c r="S13">
-        <v>0.09040535894026555</v>
+        <v>0.004869285537640748</v>
       </c>
       <c r="T13">
-        <v>0.09040535894026555</v>
+        <v>0.003660589092309477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H14">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I14">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J14">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>42.33812986476387</v>
+        <v>0.04988558808533334</v>
       </c>
       <c r="R14">
-        <v>42.33812986476387</v>
+        <v>0.299313528512</v>
       </c>
       <c r="S14">
-        <v>0.1481254098624498</v>
+        <v>0.0001109471334278986</v>
       </c>
       <c r="T14">
-        <v>0.1481254098624498</v>
+        <v>8.340687012697706E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H15">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I15">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J15">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>0.3431007818836634</v>
+        <v>0.004469680849777778</v>
       </c>
       <c r="R15">
-        <v>0.3431007818836634</v>
+        <v>0.040227127648</v>
       </c>
       <c r="S15">
-        <v>0.001200382352810095</v>
+        <v>9.940712270889618E-06</v>
       </c>
       <c r="T15">
-        <v>0.001200382352810095</v>
+        <v>1.120971319939368E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H16">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I16">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J16">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>0.8253983887578356</v>
+        <v>7.766133292803555</v>
       </c>
       <c r="R16">
-        <v>0.8253983887578356</v>
+        <v>69.89519963523199</v>
       </c>
       <c r="S16">
-        <v>0.002887762757237741</v>
+        <v>0.01727212727615104</v>
       </c>
       <c r="T16">
-        <v>0.002887762757237741</v>
+        <v>0.01947703422380122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.471712</v>
+      </c>
+      <c r="I17">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J17">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N17">
+        <v>212.597199</v>
+      </c>
+      <c r="O17">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P17">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q17">
+        <v>11.142738881632</v>
+      </c>
+      <c r="R17">
+        <v>100.284649934688</v>
+      </c>
+      <c r="S17">
+        <v>0.02478180542520506</v>
+      </c>
+      <c r="T17">
+        <v>0.02794537491978594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.471712</v>
+      </c>
+      <c r="I18">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J18">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.841336</v>
+      </c>
+      <c r="O18">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P18">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q18">
+        <v>0.09650892080355557</v>
+      </c>
+      <c r="R18">
+        <v>0.8685802872320001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002146389072342641</v>
+      </c>
+      <c r="T18">
+        <v>0.0002420390537379515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.471712</v>
+      </c>
+      <c r="I19">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J19">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.3859455</v>
+      </c>
+      <c r="N19">
+        <v>2.771891</v>
+      </c>
+      <c r="O19">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P19">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q19">
+        <v>0.2179223745653333</v>
+      </c>
+      <c r="R19">
+        <v>1.307534247392</v>
+      </c>
+      <c r="S19">
+        <v>0.0004846662873146114</v>
+      </c>
+      <c r="T19">
+        <v>0.0003643582022535508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.740156</v>
+      </c>
+      <c r="I20">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J20">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.317263</v>
+      </c>
+      <c r="N20">
+        <v>0.634526</v>
+      </c>
+      <c r="O20">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P20">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q20">
+        <v>0.07827470434266667</v>
+      </c>
+      <c r="R20">
+        <v>0.469648226056</v>
+      </c>
+      <c r="S20">
+        <v>0.000174085430282587</v>
+      </c>
+      <c r="T20">
+        <v>0.0001308724292909717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.740156</v>
+      </c>
+      <c r="I21">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J21">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P21">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q21">
+        <v>0.007013307058222222</v>
+      </c>
+      <c r="R21">
+        <v>0.06311976352399999</v>
+      </c>
+      <c r="S21">
+        <v>1.559781780317774E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.758898752376541E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.740156</v>
+      </c>
+      <c r="I22">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J22">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N22">
+        <v>148.173461</v>
+      </c>
+      <c r="O22">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P22">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q22">
+        <v>12.18571957776844</v>
+      </c>
+      <c r="R22">
+        <v>109.671476199916</v>
+      </c>
+      <c r="S22">
+        <v>0.02710142764272871</v>
+      </c>
+      <c r="T22">
+        <v>0.03056111301589067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.740156</v>
+      </c>
+      <c r="I23">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J23">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N23">
+        <v>212.597199</v>
+      </c>
+      <c r="O23">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P23">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q23">
+        <v>17.483899158116</v>
+      </c>
+      <c r="R23">
+        <v>157.355092423044</v>
+      </c>
+      <c r="S23">
+        <v>0.0388847474227878</v>
+      </c>
+      <c r="T23">
+        <v>0.04384865536413973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.740156</v>
+      </c>
+      <c r="I24">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J24">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.841336</v>
+      </c>
+      <c r="O24">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P24">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q24">
+        <v>0.1514306542684445</v>
+      </c>
+      <c r="R24">
+        <v>1.362875888416</v>
+      </c>
+      <c r="S24">
+        <v>0.0003367865880513618</v>
+      </c>
+      <c r="T24">
+        <v>0.0003797797339445832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.740156</v>
+      </c>
+      <c r="I25">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J25">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.3859455</v>
+      </c>
+      <c r="N25">
+        <v>2.771891</v>
+      </c>
+      <c r="O25">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P25">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q25">
+        <v>0.3419386258326667</v>
+      </c>
+      <c r="R25">
+        <v>2.051631754996</v>
+      </c>
+      <c r="S25">
+        <v>0.000760482371772678</v>
+      </c>
+      <c r="T25">
+        <v>0.0005717088171324433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.450874</v>
+      </c>
+      <c r="I26">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J26">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.317263</v>
+      </c>
+      <c r="N26">
+        <v>0.634526</v>
+      </c>
+      <c r="O26">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P26">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q26">
+        <v>0.1534362126206667</v>
+      </c>
+      <c r="R26">
+        <v>0.9206172757240001</v>
+      </c>
+      <c r="S26">
+        <v>0.0003412470135698665</v>
+      </c>
+      <c r="T26">
+        <v>0.0002565397091628106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.450874</v>
+      </c>
+      <c r="I27">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J27">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P27">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q27">
+        <v>0.01374767598288889</v>
+      </c>
+      <c r="R27">
+        <v>0.123729083846</v>
+      </c>
+      <c r="S27">
+        <v>3.057526833176748E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.447841358383316E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.450874</v>
+      </c>
+      <c r="I28">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J28">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N28">
+        <v>148.173461</v>
+      </c>
+      <c r="O28">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P28">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q28">
+        <v>23.88678022832377</v>
+      </c>
+      <c r="R28">
+        <v>214.981022054914</v>
+      </c>
+      <c r="S28">
+        <v>0.05312495842729961</v>
+      </c>
+      <c r="T28">
+        <v>0.05990672815706062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.450874</v>
+      </c>
+      <c r="I29">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J29">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N29">
+        <v>212.597199</v>
+      </c>
+      <c r="O29">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P29">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q29">
+        <v>34.272416500214</v>
+      </c>
+      <c r="R29">
+        <v>308.451748501926</v>
+      </c>
+      <c r="S29">
+        <v>0.07622294358525745</v>
+      </c>
+      <c r="T29">
+        <v>0.08595333146362506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.450874</v>
+      </c>
+      <c r="I30">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J30">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.841336</v>
+      </c>
+      <c r="O30">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P30">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q30">
+        <v>0.2968385030737778</v>
+      </c>
+      <c r="R30">
+        <v>2.671546527664</v>
+      </c>
+      <c r="S30">
+        <v>0.0006601782653284327</v>
+      </c>
+      <c r="T30">
+        <v>0.0007444546037688179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.450874</v>
+      </c>
+      <c r="I31">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J31">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3859455</v>
+      </c>
+      <c r="N31">
+        <v>2.771891</v>
+      </c>
+      <c r="O31">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P31">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q31">
+        <v>0.6702774304556667</v>
+      </c>
+      <c r="R31">
+        <v>4.021664582734</v>
+      </c>
+      <c r="S31">
+        <v>0.00149071830892854</v>
+      </c>
+      <c r="T31">
+        <v>0.001120679232956588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7273215</v>
+      </c>
+      <c r="H32">
+        <v>1.454643</v>
+      </c>
+      <c r="I32">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J32">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>0.2307522010545</v>
+      </c>
+      <c r="R32">
+        <v>0.923008804218</v>
+      </c>
+      <c r="S32">
+        <v>0.0005132002292001007</v>
+      </c>
+      <c r="T32">
+        <v>0.0002572061337895077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7273215</v>
+      </c>
+      <c r="H33">
+        <v>1.454643</v>
+      </c>
+      <c r="I33">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J33">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.0206750833995</v>
+      </c>
+      <c r="R33">
+        <v>0.124050500397</v>
+      </c>
+      <c r="S33">
+        <v>4.598204260183232E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.456797969418972E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7273215</v>
+      </c>
+      <c r="H34">
+        <v>1.454643</v>
+      </c>
+      <c r="I34">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J34">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>35.9232479715705</v>
+      </c>
+      <c r="R34">
+        <v>215.5394878294229</v>
+      </c>
+      <c r="S34">
+        <v>0.07989444524634365</v>
+      </c>
+      <c r="T34">
+        <v>0.06006235053255563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7273215</v>
+      </c>
+      <c r="H35">
+        <v>1.454643</v>
+      </c>
+      <c r="I35">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J35">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>51.5421712241595</v>
+      </c>
+      <c r="R35">
+        <v>309.253027344957</v>
+      </c>
+      <c r="S35">
+        <v>0.114631426980244</v>
+      </c>
+      <c r="T35">
+        <v>0.0861766162604347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7273215</v>
+      </c>
+      <c r="H36">
+        <v>1.454643</v>
+      </c>
+      <c r="I36">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J36">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>0.446414420508</v>
+      </c>
+      <c r="R36">
+        <v>2.678486523048</v>
+      </c>
+      <c r="S36">
+        <v>0.0009928398597109198</v>
+      </c>
+      <c r="T36">
+        <v>0.0007463885066450184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7273215</v>
+      </c>
+      <c r="H37">
+        <v>1.454643</v>
+      </c>
+      <c r="I37">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J37">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>1.00802795997825</v>
+      </c>
+      <c r="R37">
+        <v>4.032111839913</v>
+      </c>
+      <c r="S37">
+        <v>0.002241886221396281</v>
+      </c>
+      <c r="T37">
+        <v>0.001123590471306034</v>
       </c>
     </row>
   </sheetData>
